--- a/Spring Dependencies.xlsx
+++ b/Spring Dependencies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subramanyans/Documents/GitHub/Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D7F6F41-18E3-0347-8BA7-9959F0A30307}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED0D94B-CBC4-FB43-956F-0C9A6BB221D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20080" xr2:uid="{46860EC3-3476-B74F-8BC6-B73D99BFF670}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>spring-context</t>
   </si>
@@ -85,14 +85,54 @@
   </si>
   <si>
     <t>JDBC Data Access Library + JDBC Template</t>
+  </si>
+  <si>
+    <t>Spring Core</t>
+  </si>
+  <si>
+    <t>Spring Persistence</t>
+  </si>
+  <si>
+    <t>org.springframework.spring-web</t>
+  </si>
+  <si>
+    <t>spring-web</t>
+  </si>
+  <si>
+    <t>Contains common web specific utilities for both Servlet and Portlet environments</t>
+  </si>
+  <si>
+    <t>org.springframework.spring-webmvc</t>
+  </si>
+  <si>
+    <t>spring-webmvc</t>
+  </si>
+  <si>
+    <t>Support for MVC.
+Has explicit dependency on spring-web. So, no need to add spring-web if spring-webmvc is used</t>
+  </si>
+  <si>
+    <t>Spring MVC
+Depends on "Spring Core"</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,9 +160,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -439,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8510DBE-BA95-8541-B4D7-F69613E2AEBC}">
-  <dimension ref="B1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -454,7 +497,10 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="34">
+    <row r="1" spans="1:4" ht="34">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -462,7 +508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="17">
+    <row r="2" spans="1:4" ht="17">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="17">
+    <row r="3" spans="1:4" ht="17">
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -478,7 +524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="17">
+    <row r="4" spans="1:4" ht="17">
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
@@ -486,12 +532,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="17">
+    <row r="5" spans="1:4" ht="17">
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="17">
+    <row r="6" spans="1:4" ht="17">
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -499,7 +545,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="34">
+    <row r="9" spans="1:4" ht="34">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -510,7 +559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="17">
+    <row r="10" spans="1:4" ht="17">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -518,12 +567,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="17">
+    <row r="11" spans="1:4" ht="17">
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="51">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
